--- a/data/trans_orig/P20-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P20-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>23692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15287</v>
+        <v>15984</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34473</v>
+        <v>35095</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05000684947064114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03226582460486727</v>
+        <v>0.03373822490249422</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07276171424207213</v>
+        <v>0.07407571948652451</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -765,19 +765,19 @@
         <v>19133</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11277</v>
+        <v>11801</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27840</v>
+        <v>27736</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06238722796629752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03677190625189689</v>
+        <v>0.03848085627425402</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09077856371249668</v>
+        <v>0.09044065395353729</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -786,19 +786,19 @@
         <v>42825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31317</v>
+        <v>31191</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57118</v>
+        <v>57087</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05487171723597552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04012616679454951</v>
+        <v>0.03996535222344768</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07318525379112438</v>
+        <v>0.07314550227335233</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>450084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>439303</v>
+        <v>438681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>458489</v>
+        <v>457792</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9499931505293588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9272382857579279</v>
+        <v>0.9259242805134755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9677341753951328</v>
+        <v>0.9662617750975058</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>279</v>
@@ -836,19 +836,19 @@
         <v>287547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>278840</v>
+        <v>278944</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>295403</v>
+        <v>294879</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9376127720337025</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9092214362875033</v>
+        <v>0.9095593460464627</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9632280937481034</v>
+        <v>0.961519143725746</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>711</v>
@@ -857,19 +857,19 @@
         <v>737632</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>723339</v>
+        <v>723370</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>749140</v>
+        <v>749266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9451282827640245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9268147462088756</v>
+        <v>0.9268544977266477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9598738332054511</v>
+        <v>0.9600346477765526</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15299</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8854</v>
+        <v>8914</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25277</v>
+        <v>24838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04169388562194558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02412962261762543</v>
+        <v>0.02429287059842714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06888720562295071</v>
+        <v>0.06769037014793119</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -982,19 +982,19 @@
         <v>29316</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19898</v>
+        <v>20034</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41383</v>
+        <v>41230</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07883531580843225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05350948512760072</v>
+        <v>0.05387367931652</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1112842752371518</v>
+        <v>0.1108737221711779</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -1003,19 +1003,19 @@
         <v>44615</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32502</v>
+        <v>32942</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58695</v>
+        <v>60255</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06038854119271975</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04399251477243308</v>
+        <v>0.04458794411306494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07944661911781363</v>
+        <v>0.08155796380320893</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>351635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>341657</v>
+        <v>342096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>358080</v>
+        <v>358020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9583061143780545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9311127943770494</v>
+        <v>0.932309629852069</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9758703773823746</v>
+        <v>0.9757071294015729</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>335</v>
@@ -1053,19 +1053,19 @@
         <v>342549</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330482</v>
+        <v>330635</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>351967</v>
+        <v>351831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9211646841915677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8887157247628481</v>
+        <v>0.8891262778288221</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.946490514872399</v>
+        <v>0.9461263206834799</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>670</v>
@@ -1074,19 +1074,19 @@
         <v>694184</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>680104</v>
+        <v>678544</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>706297</v>
+        <v>705857</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9396114588072803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9205533808821866</v>
+        <v>0.9184420361967914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9560074852275674</v>
+        <v>0.9554120558869355</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>21292</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13770</v>
+        <v>14060</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31352</v>
+        <v>32279</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03925546075527706</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02538789108316563</v>
+        <v>0.02592164339827703</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0578032015843661</v>
+        <v>0.05951216771296802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>16549</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9443</v>
+        <v>10067</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25131</v>
+        <v>26345</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09863243774156667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05628198585138577</v>
+        <v>0.060002513688232</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1497848834184948</v>
+        <v>0.1570210633208974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1220,19 +1220,19 @@
         <v>37840</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27901</v>
+        <v>26292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51876</v>
+        <v>51215</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05328360670847749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03928830714472893</v>
+        <v>0.03702254750880494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07304703760246054</v>
+        <v>0.07211711154788454</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>521097</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511037</v>
+        <v>510110</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>528619</v>
+        <v>528329</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9607445392447229</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9421967984156336</v>
+        <v>0.9404878322870318</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9746121089168343</v>
+        <v>0.9740783566017229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -1270,19 +1270,19 @@
         <v>151233</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142651</v>
+        <v>141437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158339</v>
+        <v>157715</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9013675622584333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8502151165815051</v>
+        <v>0.8429789366791025</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9437180141486142</v>
+        <v>0.939997486311768</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>659</v>
@@ -1291,19 +1291,19 @@
         <v>672331</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>658295</v>
+        <v>658956</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>682270</v>
+        <v>683879</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9467163932915225</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.92695296239754</v>
+        <v>0.927882888452116</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9607116928552711</v>
+        <v>0.962977452491195</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>56370</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44273</v>
+        <v>43502</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73772</v>
+        <v>72851</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04552060693405562</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0357517255580576</v>
+        <v>0.03512907583552372</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05957398727526784</v>
+        <v>0.05882947315922782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -1416,19 +1416,19 @@
         <v>63034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49164</v>
+        <v>49467</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79655</v>
+        <v>78085</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08824739623699246</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06882957129003033</v>
+        <v>0.06925386306064678</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.111517234635123</v>
+        <v>0.1093196554396131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>119</v>
@@ -1437,19 +1437,19 @@
         <v>119404</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98150</v>
+        <v>100000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141017</v>
+        <v>141921</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06115043916736088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05026594237538169</v>
+        <v>0.051213322811171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07221918598465177</v>
+        <v>0.07268212099308419</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1181964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1164562</v>
+        <v>1165483</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1194061</v>
+        <v>1194832</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9544793930659444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9404260127247314</v>
+        <v>0.9411705268407723</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9642482744419424</v>
+        <v>0.9648709241644765</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>632</v>
@@ -1487,19 +1487,19 @@
         <v>651251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>634630</v>
+        <v>636200</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>665121</v>
+        <v>664818</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9117526037630075</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8884827653648767</v>
+        <v>0.890680344560387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9311704287099696</v>
+        <v>0.9307461369393534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1799</v>
@@ -1508,19 +1508,19 @@
         <v>1833216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1811603</v>
+        <v>1810699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1854470</v>
+        <v>1852620</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9388495608326392</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9277808140153482</v>
+        <v>0.9273178790069158</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9497340576246182</v>
+        <v>0.9487866771888289</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15155</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9337</v>
+        <v>9445</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23538</v>
+        <v>24246</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04323162807467209</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02663439860901609</v>
+        <v>0.02694427321441667</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06714482091503769</v>
+        <v>0.06916399106109551</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1633,19 +1633,19 @@
         <v>40955</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28371</v>
+        <v>29369</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55980</v>
+        <v>54273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07200824933791519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04988297767975682</v>
+        <v>0.05163824732210107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09842666029138072</v>
+        <v>0.09542434222280073</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -1654,19 +1654,19 @@
         <v>56110</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42052</v>
+        <v>42140</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71260</v>
+        <v>73745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06103498902950125</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04574311118279977</v>
+        <v>0.04583936689463455</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07751493153088347</v>
+        <v>0.08021765537937457</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>335400</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>327017</v>
+        <v>326309</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>341218</v>
+        <v>341110</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9567683719253279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9328551790849625</v>
+        <v>0.9308360089389044</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9733656013909842</v>
+        <v>0.9730557267855828</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>501</v>
@@ -1704,19 +1704,19 @@
         <v>527797</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>512772</v>
+        <v>514479</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>540381</v>
+        <v>539383</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9279917506620848</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9015733397086193</v>
+        <v>0.9045756577771995</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9501170223202432</v>
+        <v>0.9483617526778989</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>825</v>
@@ -1725,19 +1725,19 @@
         <v>863197</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>848047</v>
+        <v>845562</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>877255</v>
+        <v>877167</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9389650109704988</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9224850684691168</v>
+        <v>0.9197823446206256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9542568888172003</v>
+        <v>0.9541606331053655</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3619</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12471</v>
+        <v>11716</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01217338963177924</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003012253245400739</v>
+        <v>0.002996912855992088</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04195511361693351</v>
+        <v>0.03941382800542632</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -1850,19 +1850,19 @@
         <v>80354</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63235</v>
+        <v>64763</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96912</v>
+        <v>97383</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06434732547172844</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05063835062294778</v>
+        <v>0.05186165712510076</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.077606929992728</v>
+        <v>0.07798374001662721</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -1871,19 +1871,19 @@
         <v>83973</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67521</v>
+        <v>66653</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102252</v>
+        <v>102390</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05431572075790294</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04367420565400924</v>
+        <v>0.04311258057818136</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06613891396626718</v>
+        <v>0.06622831111902511</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>293637</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284785</v>
+        <v>285540</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>296361</v>
+        <v>296365</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9878266103682207</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9580448863830665</v>
+        <v>0.9605861719945734</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9969877467545992</v>
+        <v>0.997003087144008</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1158</v>
@@ -1921,19 +1921,19 @@
         <v>1168406</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1151848</v>
+        <v>1151377</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1185525</v>
+        <v>1183997</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9356526745282716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9223930700072718</v>
+        <v>0.9220162599833727</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9493616493770521</v>
+        <v>0.9481383428748993</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1460</v>
@@ -1942,19 +1942,19 @@
         <v>1462043</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1443764</v>
+        <v>1443626</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1478495</v>
+        <v>1479363</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9456842792420971</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9338610860337329</v>
+        <v>0.9337716888809749</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9563257943459907</v>
+        <v>0.9568874194218188</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>135426</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113927</v>
+        <v>114447</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>161030</v>
+        <v>160129</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04142427832067014</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03484803770192401</v>
+        <v>0.03500708484385684</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04925598060928663</v>
+        <v>0.0489804736472993</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>242</v>
@@ -2067,19 +2067,19 @@
         <v>249341</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>220466</v>
+        <v>219586</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>281026</v>
+        <v>276911</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07381042060441154</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06526287341935698</v>
+        <v>0.06500246268574214</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08319005469549634</v>
+        <v>0.08197183177520832</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>378</v>
@@ -2088,19 +2088,19 @@
         <v>384767</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>347077</v>
+        <v>348945</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>421288</v>
+        <v>426251</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05788257871000188</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05221268783721595</v>
+        <v>0.05249375055178152</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06337667737405973</v>
+        <v>0.064123241705327</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3133820</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3108216</v>
+        <v>3109117</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3155319</v>
+        <v>3154799</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9585757216793298</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9507440193907134</v>
+        <v>0.951019526352701</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.965151962298076</v>
+        <v>0.9649929151561433</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3054</v>
@@ -2138,19 +2138,19 @@
         <v>3128783</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3097098</v>
+        <v>3101213</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3157658</v>
+        <v>3158538</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9261895793955884</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9168099453045034</v>
+        <v>0.9180281682247916</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9347371265806429</v>
+        <v>0.9349975373142577</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6124</v>
@@ -2159,19 +2159,19 @@
         <v>6262603</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6226082</v>
+        <v>6221119</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6300293</v>
+        <v>6298425</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9421174212899981</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9366233226259406</v>
+        <v>0.935876758294673</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9477873121627841</v>
+        <v>0.9475062494482184</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>21187</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13130</v>
+        <v>12990</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33467</v>
+        <v>33436</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04845880301893644</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03003013986446513</v>
+        <v>0.02971105386746048</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07654760902172497</v>
+        <v>0.0764753935275391</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -2526,19 +2526,19 @@
         <v>34513</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24345</v>
+        <v>23498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47587</v>
+        <v>47946</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1097546186752804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.077420130523151</v>
+        <v>0.07472661598862047</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1513329518147084</v>
+        <v>0.1524746758111213</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -2547,19 +2547,19 @@
         <v>55700</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42818</v>
+        <v>42081</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73134</v>
+        <v>73997</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07410151504692578</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0569640451495562</v>
+        <v>0.05598393348497007</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09729540501221584</v>
+        <v>0.09844408926115979</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>416024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>403744</v>
+        <v>403775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424081</v>
+        <v>424221</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9515411969810635</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9234523909782751</v>
+        <v>0.9235246064724609</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9699698601355349</v>
+        <v>0.9702889461325395</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>252</v>
@@ -2597,19 +2597,19 @@
         <v>279941</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266867</v>
+        <v>266508</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290109</v>
+        <v>290956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8902453813247195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8486670481852916</v>
+        <v>0.8475253241888786</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.922579869476849</v>
+        <v>0.9252733840113795</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>638</v>
@@ -2618,19 +2618,19 @@
         <v>695965</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>678531</v>
+        <v>677668</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>708847</v>
+        <v>709584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9258984849530743</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9027045949877839</v>
+        <v>0.9015559107388404</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9430359548504438</v>
+        <v>0.9440160665150299</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>16898</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9545</v>
+        <v>9626</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26455</v>
+        <v>27275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04034867759220336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02279240257816533</v>
+        <v>0.02298381992238786</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06316902520929095</v>
+        <v>0.06512638037104874</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2743,19 +2743,19 @@
         <v>33318</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23141</v>
+        <v>22132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48087</v>
+        <v>46168</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09857070055473274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06846204480852582</v>
+        <v>0.06547774014710288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1422660371098052</v>
+        <v>0.1365886451056574</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -2764,19 +2764,19 @@
         <v>50216</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37667</v>
+        <v>36865</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67730</v>
+        <v>66413</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06635221941089517</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.049771399641095</v>
+        <v>0.04871114692008148</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08949435178026297</v>
+        <v>0.0877545259909301</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>401899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>392342</v>
+        <v>391522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409252</v>
+        <v>409171</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9596513224077966</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.936830974790709</v>
+        <v>0.9348736196289511</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9772075974218346</v>
+        <v>0.9770161800776122</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>275</v>
@@ -2814,19 +2814,19 @@
         <v>304693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>289924</v>
+        <v>291843</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>314870</v>
+        <v>315879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9014292994452673</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8577339628901948</v>
+        <v>0.8634113548943426</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9315379551914742</v>
+        <v>0.9345222598528972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>634</v>
@@ -2835,19 +2835,19 @@
         <v>706592</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>689078</v>
+        <v>690395</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>719141</v>
+        <v>719943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9336477805891048</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9105056482197371</v>
+        <v>0.9122454740090699</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9502286003589051</v>
+        <v>0.9512888530799186</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>49191</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36658</v>
+        <v>36496</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66603</v>
+        <v>65613</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0781535545663832</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05824098131154936</v>
+        <v>0.05798378980753867</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1058176429894203</v>
+        <v>0.1042436680586606</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -2960,19 +2960,19 @@
         <v>22933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14926</v>
+        <v>14384</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32896</v>
+        <v>33175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08816176209923908</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05737977642280899</v>
+        <v>0.05529397313700877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1264619388852899</v>
+        <v>0.1275320628175734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -2981,19 +2981,19 @@
         <v>72124</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57523</v>
+        <v>56576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93003</v>
+        <v>91610</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08108025475206207</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06466553965259418</v>
+        <v>0.06360142782614296</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1045517517692458</v>
+        <v>0.1029858935059552</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>580224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>562812</v>
+        <v>563802</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>592757</v>
+        <v>592919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9218464454336168</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8941823570105799</v>
+        <v>0.89575633194134</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9417590186884509</v>
+        <v>0.9420162101924616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>222</v>
@@ -3031,19 +3031,19 @@
         <v>237196</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>227233</v>
+        <v>226954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245203</v>
+        <v>245745</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9118382379007609</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8735380611147101</v>
+        <v>0.8724679371824265</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.942620223577191</v>
+        <v>0.9447060268629912</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>768</v>
@@ -3052,19 +3052,19 @@
         <v>817420</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>796541</v>
+        <v>797934</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>832021</v>
+        <v>832968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.918919745247938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8954482482307542</v>
+        <v>0.8970141064940449</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9353344603474059</v>
+        <v>0.936398572173857</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>73652</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58531</v>
+        <v>58075</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91809</v>
+        <v>90826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06354778532564956</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05050131608198902</v>
+        <v>0.05010739310413351</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07921330261334536</v>
+        <v>0.07836517906770214</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -3177,19 +3177,19 @@
         <v>81304</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65213</v>
+        <v>66306</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98472</v>
+        <v>101388</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1060499023644325</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08506193938656534</v>
+        <v>0.08648663389383138</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1284432859391868</v>
+        <v>0.1322465459564864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -3198,19 +3198,19 @@
         <v>154956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>130725</v>
+        <v>132565</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180895</v>
+        <v>181071</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08046897136447301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06788533568080371</v>
+        <v>0.06884104979495852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09393887467254676</v>
+        <v>0.09403013279143589</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1085357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1067200</v>
+        <v>1068183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1100478</v>
+        <v>1100934</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9364522146743505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9207866973866545</v>
+        <v>0.9216348209322979</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.949498683918011</v>
+        <v>0.9498926068958665</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>636</v>
@@ -3248,19 +3248,19 @@
         <v>685353</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>668185</v>
+        <v>665269</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>701444</v>
+        <v>700351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8939500976355674</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8715567140608131</v>
+        <v>0.8677534540435132</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9149380606134346</v>
+        <v>0.9135133661061686</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1649</v>
@@ -3269,19 +3269,19 @@
         <v>1770711</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1744772</v>
+        <v>1744596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1794942</v>
+        <v>1793102</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9195310286355269</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9060611253274532</v>
+        <v>0.9059698672085642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9321146643191963</v>
+        <v>0.9311589502050416</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>38097</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26044</v>
+        <v>27512</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51599</v>
+        <v>54213</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07461279048354316</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05100666745661753</v>
+        <v>0.05388141005371706</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1010564343194597</v>
+        <v>0.1061750201815261</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -3394,19 +3394,19 @@
         <v>79040</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63270</v>
+        <v>63206</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98911</v>
+        <v>97941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1037919218350061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08308322719517074</v>
+        <v>0.08299928687164938</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1298854612276556</v>
+        <v>0.128611721879508</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -3415,19 +3415,19 @@
         <v>117137</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96109</v>
+        <v>97474</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>138716</v>
+        <v>140628</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09208014968871524</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07555041908020392</v>
+        <v>0.07662363795701252</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1090434390759305</v>
+        <v>0.1105465428792614</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>472499</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>458997</v>
+        <v>456383</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>484552</v>
+        <v>483084</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9253872095164568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8989435656805401</v>
+        <v>0.8938249798184733</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9489933325433824</v>
+        <v>0.9461185899462827</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>630</v>
@@ -3465,19 +3465,19 @@
         <v>682482</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>662611</v>
+        <v>663581</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>698252</v>
+        <v>698316</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8962080781649939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8701145387723443</v>
+        <v>0.8713882781204918</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.916916772804829</v>
+        <v>0.9170007131283503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1082</v>
@@ -3486,19 +3486,19 @@
         <v>1154981</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1133402</v>
+        <v>1131490</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1176009</v>
+        <v>1174644</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9079198503112847</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8909565609240696</v>
+        <v>0.8894534571207386</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9244495809197962</v>
+        <v>0.9233763620429876</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>7879</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3908</v>
+        <v>3904</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14712</v>
+        <v>14216</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02975032690284776</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01475749346066198</v>
+        <v>0.01474071548335943</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05555317791328752</v>
+        <v>0.05367934236940059</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -3611,19 +3611,19 @@
         <v>84969</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68732</v>
+        <v>68256</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104028</v>
+        <v>103941</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07659309836606798</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06195679179294744</v>
+        <v>0.06152829675983405</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09377365840231416</v>
+        <v>0.09369528031808259</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -3632,19 +3632,19 @@
         <v>92848</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76028</v>
+        <v>75017</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110986</v>
+        <v>111754</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06756551368909849</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05532598946472753</v>
+        <v>0.05459046775987116</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08076486883283854</v>
+        <v>0.08132408243353244</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>256955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250122</v>
+        <v>250618</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260926</v>
+        <v>260930</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9702496730971523</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9444468220867124</v>
+        <v>0.946320657630599</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.985242506539338</v>
+        <v>0.9852592845166406</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>963</v>
@@ -3682,19 +3682,19 @@
         <v>1024382</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1005323</v>
+        <v>1005410</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1040619</v>
+        <v>1041095</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.923406901633932</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9062263415976858</v>
+        <v>0.9063047196819173</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9380432082070519</v>
+        <v>0.9384717032401659</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1219</v>
@@ -3703,19 +3703,19 @@
         <v>1281338</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1263200</v>
+        <v>1262432</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1298158</v>
+        <v>1299169</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9324344863109015</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9192351311671615</v>
+        <v>0.9186759175664673</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9446740105352724</v>
+        <v>0.9454095322401286</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>206904</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>181838</v>
+        <v>179333</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>237591</v>
+        <v>238054</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06050068288278509</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0531712961025695</v>
+        <v>0.05243852067455085</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06947393441611878</v>
+        <v>0.06960934605635445</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>312</v>
@@ -3828,19 +3828,19 @@
         <v>336077</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>301886</v>
+        <v>299529</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>377167</v>
+        <v>373825</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09466614325409732</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08503518761105285</v>
+        <v>0.08437127976674377</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1062403698621934</v>
+        <v>0.105299140008907</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>504</v>
@@ -3849,19 +3849,19 @@
         <v>542981</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>496460</v>
+        <v>498296</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>589316</v>
+        <v>588777</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07790267399251415</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07122821828216079</v>
+        <v>0.07149163362544779</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0845504635411518</v>
+        <v>0.08447311565315571</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3212958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3182271</v>
+        <v>3181808</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3238024</v>
+        <v>3240529</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9394993171172149</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9305260655838813</v>
+        <v>0.9303906539436452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9468287038974305</v>
+        <v>0.9475614793254491</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2978</v>
@@ -3899,19 +3899,19 @@
         <v>3214048</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3172958</v>
+        <v>3176300</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3248239</v>
+        <v>3250596</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9053338567459027</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8937596301378066</v>
+        <v>0.8947008599910931</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9149648123889472</v>
+        <v>0.9156287202332563</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5990</v>
@@ -3920,19 +3920,19 @@
         <v>6427007</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6380672</v>
+        <v>6381211</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6473528</v>
+        <v>6471692</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9220973260074858</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9154495364588482</v>
+        <v>0.9155268843468446</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9287717817178391</v>
+        <v>0.9285083663745523</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>26212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16954</v>
+        <v>16840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38081</v>
+        <v>37878</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06108760499956326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03951185826523911</v>
+        <v>0.03924643816976509</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08874866862254138</v>
+        <v>0.08827467600014391</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -4287,19 +4287,19 @@
         <v>33322</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23886</v>
+        <v>22359</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45827</v>
+        <v>44848</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09601280838860415</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06882572972031066</v>
+        <v>0.06442485472700363</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1320467740456843</v>
+        <v>0.1292247758930165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -4308,19 +4308,19 @@
         <v>59534</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46086</v>
+        <v>46394</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76117</v>
+        <v>77062</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0767044462608349</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05937779573955237</v>
+        <v>0.05977516472101801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09807021944938045</v>
+        <v>0.09928724938468998</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>402880</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>391011</v>
+        <v>391214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>412138</v>
+        <v>412252</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9389123950004368</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9112513313774586</v>
+        <v>0.9117253239998561</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9604881417347609</v>
+        <v>0.960753561830235</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>300</v>
@@ -4358,19 +4358,19 @@
         <v>313733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301228</v>
+        <v>302207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>323169</v>
+        <v>324696</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9039871916113958</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8679532259543158</v>
+        <v>0.8707752241069836</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9311742702796894</v>
+        <v>0.9355751452729963</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>673</v>
@@ -4379,19 +4379,19 @@
         <v>716613</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>700030</v>
+        <v>699085</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>730061</v>
+        <v>729753</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9232955537391651</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9019297805506196</v>
+        <v>0.9007127506153101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9406222042604477</v>
+        <v>0.940224835278982</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>20534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13374</v>
+        <v>12817</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31343</v>
+        <v>31949</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05443326985239515</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03545328226315359</v>
+        <v>0.03397616850372966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08308714302012017</v>
+        <v>0.08469303903261698</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -4504,19 +4504,19 @@
         <v>34280</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23844</v>
+        <v>23761</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47046</v>
+        <v>45740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0920826356578917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06405086539767312</v>
+        <v>0.06382677702195698</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1263741123786336</v>
+        <v>0.1228665888772535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -4525,19 +4525,19 @@
         <v>54814</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41763</v>
+        <v>41340</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71757</v>
+        <v>70443</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07313353341038482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05572053539784445</v>
+        <v>0.0551562704721067</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09573933079116276</v>
+        <v>0.09398721898488228</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>356693</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345884</v>
+        <v>345278</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363853</v>
+        <v>364410</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9455667301476048</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9169128569798796</v>
+        <v>0.915306960967383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9645467177368463</v>
+        <v>0.9660238314962699</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>319</v>
@@ -4575,19 +4575,19 @@
         <v>337993</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325227</v>
+        <v>326533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348429</v>
+        <v>348512</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9079173643421083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8736258876213662</v>
+        <v>0.8771334111227465</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9359491346023266</v>
+        <v>0.9361732229780431</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>654</v>
@@ -4596,19 +4596,19 @@
         <v>694686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>677743</v>
+        <v>679057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>707737</v>
+        <v>708160</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9268664665896151</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9042606692088373</v>
+        <v>0.9060127810151177</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9442794646021555</v>
+        <v>0.9448437295278934</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>31910</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22713</v>
+        <v>22450</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46202</v>
+        <v>45531</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06114117008326702</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0435190770216655</v>
+        <v>0.04301457882728788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08852471721954128</v>
+        <v>0.08723915313970734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -4721,19 +4721,19 @@
         <v>15993</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9132</v>
+        <v>9130</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25683</v>
+        <v>26665</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09627086988724694</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05497294568535725</v>
+        <v>0.05495820312456026</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1546040550082368</v>
+        <v>0.1605118719783524</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -4742,19 +4742,19 @@
         <v>47903</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35421</v>
+        <v>35292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62564</v>
+        <v>63880</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06962305190681596</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05148184804577424</v>
+        <v>0.05129402624180529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09093158024968777</v>
+        <v>0.0928443858329069</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>490004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>475712</v>
+        <v>476383</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499201</v>
+        <v>499464</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.938858829916733</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9114752827804592</v>
+        <v>0.9127608468602927</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9564809229783345</v>
+        <v>0.9569854211727122</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>140</v>
@@ -4792,19 +4792,19 @@
         <v>150130</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>140440</v>
+        <v>139458</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156991</v>
+        <v>156993</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.903729130112753</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8453959449917636</v>
+        <v>0.8394881280216475</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9450270543146427</v>
+        <v>0.94504179687544</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>611</v>
@@ -4813,19 +4813,19 @@
         <v>640133</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>625472</v>
+        <v>624156</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652615</v>
+        <v>652744</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9303769480931841</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9090684197503125</v>
+        <v>0.9071556141670929</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9485181519542261</v>
+        <v>0.9487059737581947</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>53940</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41575</v>
+        <v>41160</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69811</v>
+        <v>71125</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04691928281441896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0361633047629952</v>
+        <v>0.03580244582361414</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06072437585973375</v>
+        <v>0.0618673829863909</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -4938,19 +4938,19 @@
         <v>76789</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60742</v>
+        <v>61317</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95351</v>
+        <v>95241</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09297872677408431</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0735483719331838</v>
+        <v>0.0742450465451298</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1154547397419536</v>
+        <v>0.1153207533346042</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>125</v>
@@ -4959,19 +4959,19 @@
         <v>130729</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106961</v>
+        <v>110102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154812</v>
+        <v>157807</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06617471628752539</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05414346253526917</v>
+        <v>0.05573344218819983</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07836553326286684</v>
+        <v>0.0798816777327392</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1095698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1079827</v>
+        <v>1078513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1108063</v>
+        <v>1108478</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9530807171855811</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9392756241402663</v>
+        <v>0.9381326170136089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9638366952370052</v>
+        <v>0.9641975541763854</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>725</v>
@@ -5009,19 +5009,19 @@
         <v>749087</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>730525</v>
+        <v>730635</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>765134</v>
+        <v>764559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9070212732259157</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8845452602580455</v>
+        <v>0.8846792466653953</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9264516280668161</v>
+        <v>0.9257549534548701</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1776</v>
@@ -5030,19 +5030,19 @@
         <v>1844785</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1820702</v>
+        <v>1817707</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1868553</v>
+        <v>1865412</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9338252837124746</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9216344667371332</v>
+        <v>0.9201183222672611</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9458565374647309</v>
+        <v>0.9442665578118002</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>21858</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14286</v>
+        <v>14736</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33104</v>
+        <v>33547</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03521446537052865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02301607283013997</v>
+        <v>0.02374136953117877</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05333329075193474</v>
+        <v>0.05404576775002433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -5155,19 +5155,19 @@
         <v>46717</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34262</v>
+        <v>34654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60677</v>
+        <v>62305</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06328072443497267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04641041967570157</v>
+        <v>0.04694110746667985</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08219036523326298</v>
+        <v>0.08439588762915265</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -5176,19 +5176,19 @@
         <v>68574</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52911</v>
+        <v>53983</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88436</v>
+        <v>88352</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05046134776945838</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03893502971604168</v>
+        <v>0.03972379419519702</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06507686099294163</v>
+        <v>0.06501523670198073</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>598848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>587602</v>
+        <v>587159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>606420</v>
+        <v>605970</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9647855346294714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9466667092480651</v>
+        <v>0.9459542322499757</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9769839271698599</v>
+        <v>0.9762586304688212</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>656</v>
@@ -5226,19 +5226,19 @@
         <v>691527</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>677567</v>
+        <v>675939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>703982</v>
+        <v>703590</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9367192755650273</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9178096347667369</v>
+        <v>0.9156041123708474</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9535895803242984</v>
+        <v>0.9530588925333202</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1232</v>
@@ -5247,19 +5247,19 @@
         <v>1290376</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1270514</v>
+        <v>1270598</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1306039</v>
+        <v>1304967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9495386522305416</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9349231390070586</v>
+        <v>0.9349847632980194</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9610649702839584</v>
+        <v>0.960276205804803</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>9026</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4137</v>
+        <v>4681</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16505</v>
+        <v>17163</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03143509732427441</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01440787142527376</v>
+        <v>0.01630214200369459</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05748017956481387</v>
+        <v>0.05976953700964503</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -5372,19 +5372,19 @@
         <v>66239</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51259</v>
+        <v>51594</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85114</v>
+        <v>84793</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06121779302989457</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04737320286520112</v>
+        <v>0.04768290659677754</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07866181332733933</v>
+        <v>0.07836484250916771</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -5393,19 +5393,19 @@
         <v>75266</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59637</v>
+        <v>60137</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94663</v>
+        <v>97550</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05497170485097532</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04355705223615909</v>
+        <v>0.04392228392116214</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06913920720668806</v>
+        <v>0.07124734832139035</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>278119</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270640</v>
+        <v>269982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>283008</v>
+        <v>282464</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9685649026757256</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.942519820435186</v>
+        <v>0.9402304629903551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9855921285747259</v>
+        <v>0.9836978579963054</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>935</v>
@@ -5443,19 +5443,19 @@
         <v>1015786</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>996911</v>
+        <v>997232</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1030766</v>
+        <v>1030431</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9387822069701054</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9213381866726607</v>
+        <v>0.9216351574908321</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9526267971347989</v>
+        <v>0.9523170934032223</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1198</v>
@@ -5464,19 +5464,19 @@
         <v>1293904</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1274507</v>
+        <v>1271620</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1309533</v>
+        <v>1309033</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9450282951490246</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9308607927933114</v>
+        <v>0.9287526516786099</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9564429477638409</v>
+        <v>0.9560777160788381</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>163481</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>140522</v>
+        <v>140772</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>191209</v>
+        <v>191633</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04828535283206278</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04150417618307418</v>
+        <v>0.0415779923848093</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05647522507863071</v>
+        <v>0.05660024845580784</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>251</v>
@@ -5589,19 +5589,19 @@
         <v>273339</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>242322</v>
+        <v>243805</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>307676</v>
+        <v>309650</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0773981810128256</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06861551414956307</v>
+        <v>0.06903544399932289</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08712084059078841</v>
+        <v>0.08767999077456516</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>406</v>
@@ -5610,19 +5610,19 @@
         <v>436820</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>397973</v>
+        <v>394279</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>477282</v>
+        <v>482787</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06314873531018496</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05753278492299781</v>
+        <v>0.05699887179576882</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06899816707089713</v>
+        <v>0.06979391307868585</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3222241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3194513</v>
+        <v>3194089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3245200</v>
+        <v>3244950</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9517146471679372</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9435247749213693</v>
+        <v>0.9433997515441921</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9584958238169259</v>
+        <v>0.9584220076151908</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3075</v>
@@ -5660,19 +5660,19 @@
         <v>3258257</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3223920</v>
+        <v>3221946</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3289274</v>
+        <v>3287791</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9226018189871744</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9128791594092116</v>
+        <v>0.9123200092254353</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9313844858504368</v>
+        <v>0.9309645560006772</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6144</v>
@@ -5681,19 +5681,19 @@
         <v>6480498</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6440036</v>
+        <v>6434531</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6519345</v>
+        <v>6523039</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9368512646898151</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9310018329291029</v>
+        <v>0.9302060869213141</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9424672150770023</v>
+        <v>0.943001128204231</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>32744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24079</v>
+        <v>23039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47478</v>
+        <v>44812</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05946754550718838</v>
+        <v>0.05946754550718837</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0437305668571241</v>
+        <v>0.04184201091655967</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08622734157359115</v>
+        <v>0.08138508720594351</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -6048,19 +6048,19 @@
         <v>36353</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26743</v>
+        <v>25836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49240</v>
+        <v>48342</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07443091813039845</v>
+        <v>0.07443091813039844</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05475465110528528</v>
+        <v>0.0528981790557549</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1008159190946851</v>
+        <v>0.09897871530902844</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -6069,19 +6069,19 @@
         <v>69097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54432</v>
+        <v>55492</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84731</v>
+        <v>86368</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06650129818249498</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05238740516383388</v>
+        <v>0.05340753030387049</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08154778384565999</v>
+        <v>0.08312328390106358</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>517874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>503140</v>
+        <v>505806</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>526539</v>
+        <v>527579</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9405324544928116</v>
+        <v>0.9405324544928118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9137726584264089</v>
+        <v>0.9186149127940565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9562694331428758</v>
+        <v>0.9581579890834401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>640</v>
@@ -6119,19 +6119,19 @@
         <v>452058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>439171</v>
+        <v>440069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>461668</v>
+        <v>462575</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9255690818696016</v>
+        <v>0.9255690818696015</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8991840809053149</v>
+        <v>0.9010212846909715</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9452453488947148</v>
+        <v>0.9471018209442452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1158</v>
@@ -6140,19 +6140,19 @@
         <v>969932</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>954298</v>
+        <v>952661</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>984597</v>
+        <v>983537</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9334987018175052</v>
+        <v>0.933498701817505</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9184522161543399</v>
+        <v>0.9168767160989363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.947612594836166</v>
+        <v>0.9465924696961295</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>23467</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15446</v>
+        <v>15545</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33814</v>
+        <v>34213</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04856470548201287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03196613199349749</v>
+        <v>0.03217095412101215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06997676010156488</v>
+        <v>0.07080291397909798</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -6265,19 +6265,19 @@
         <v>33216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24566</v>
+        <v>24294</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45075</v>
+        <v>44634</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07849925699199188</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05805553118365336</v>
+        <v>0.05741205673690698</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1065231128015486</v>
+        <v>0.105483101436653</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -6286,19 +6286,19 @@
         <v>56683</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45406</v>
+        <v>44207</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72096</v>
+        <v>71399</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06254001487869158</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05009786388053793</v>
+        <v>0.04877405734626458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07954473762448054</v>
+        <v>0.07877574934960258</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>459745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>449398</v>
+        <v>448999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>467766</v>
+        <v>467667</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9514352945179871</v>
+        <v>0.951435294517987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9300232398984351</v>
+        <v>0.929197086020902</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9680338680065023</v>
+        <v>0.967829045878988</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>546</v>
@@ -6336,19 +6336,19 @@
         <v>389927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>378068</v>
+        <v>378509</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>398577</v>
+        <v>398849</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9215007430080081</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8934768871984515</v>
+        <v>0.894516898563347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9419444688163466</v>
+        <v>0.942587943263093</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1000</v>
@@ -6357,19 +6357,19 @@
         <v>849672</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>834259</v>
+        <v>834956</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>860949</v>
+        <v>862148</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9374599851213085</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9204552623755196</v>
+        <v>0.9212242506503969</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9499021361194621</v>
+        <v>0.9512259426537353</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>36932</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26602</v>
+        <v>25294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51862</v>
+        <v>49117</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07831094440860155</v>
+        <v>0.07831094440860153</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05640573290087444</v>
+        <v>0.05363232602028327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1099683978905473</v>
+        <v>0.1041461835233478</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -6482,19 +6482,19 @@
         <v>18352</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11395</v>
+        <v>11292</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28418</v>
+        <v>28831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0978806459028508</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06077656851834385</v>
+        <v>0.06022552272841251</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1515648972708397</v>
+        <v>0.1537677504312926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -6503,19 +6503,19 @@
         <v>55285</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41923</v>
+        <v>42533</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71819</v>
+        <v>71264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08387795365521589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06360496185943273</v>
+        <v>0.06453179049026746</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1089643982442472</v>
+        <v>0.1081216763826937</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>434680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>419750</v>
+        <v>422495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>445010</v>
+        <v>446318</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9216890555913986</v>
+        <v>0.9216890555913984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8900316021094529</v>
+        <v>0.8958538164766522</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9435942670991257</v>
+        <v>0.9463676739797169</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>265</v>
@@ -6553,19 +6553,19 @@
         <v>169145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159079</v>
+        <v>158666</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>176102</v>
+        <v>176205</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9021193540971493</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8484351027291603</v>
+        <v>0.8462322495687071</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9392234314816563</v>
+        <v>0.9397744772715868</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>715</v>
@@ -6574,19 +6574,19 @@
         <v>603824</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>587290</v>
+        <v>587845</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>617186</v>
+        <v>616576</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9161220463447842</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.891035601755753</v>
+        <v>0.8918783236173072</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.936395038140567</v>
+        <v>0.9354682095097328</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>62979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48851</v>
+        <v>47981</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82101</v>
+        <v>82951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05564259593384387</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04316018430209696</v>
+        <v>0.04239190082607786</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07253737150714971</v>
+        <v>0.07328871478495393</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -6699,19 +6699,19 @@
         <v>59789</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47876</v>
+        <v>47234</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74702</v>
+        <v>74225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06942387019430941</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0555909179834846</v>
+        <v>0.0548462530161002</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08674054284635774</v>
+        <v>0.08618653986550699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>153</v>
@@ -6720,19 +6720,19 @@
         <v>122767</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104531</v>
+        <v>103384</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145557</v>
+        <v>145072</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06159757234424251</v>
+        <v>0.06159757234424252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05244752882359167</v>
+        <v>0.05187228926282755</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07303207610999758</v>
+        <v>0.07278889730753668</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1068864</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1049742</v>
+        <v>1048892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1082992</v>
+        <v>1083862</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9443574040661561</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9274626284928504</v>
+        <v>0.9267112852150464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9568398156979032</v>
+        <v>0.9576080991739224</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1147</v>
@@ -6770,19 +6770,19 @@
         <v>801422</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>786509</v>
+        <v>786986</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>813335</v>
+        <v>813977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9305761298056905</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9132594571536422</v>
+        <v>0.9138134601344933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9444090820165153</v>
+        <v>0.9451537469839003</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2195</v>
@@ -6791,19 +6791,19 @@
         <v>1870287</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1847497</v>
+        <v>1847982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1888523</v>
+        <v>1889670</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9384024276557573</v>
+        <v>0.9384024276557577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9269679238900023</v>
+        <v>0.9272111026924632</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9475524711764082</v>
+        <v>0.9481277107371725</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>44100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33357</v>
+        <v>33128</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57883</v>
+        <v>57879</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07764564913831486</v>
+        <v>0.07764564913831484</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05873162397605231</v>
+        <v>0.05832722283243114</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1019127122146785</v>
+        <v>0.1019052621251326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -6916,19 +6916,19 @@
         <v>46795</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37252</v>
+        <v>35727</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63183</v>
+        <v>60863</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05637044234657331</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0448747968501216</v>
+        <v>0.04303812209844744</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07611213350202702</v>
+        <v>0.07331785497241518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>124</v>
@@ -6937,19 +6937,19 @@
         <v>90895</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76178</v>
+        <v>74562</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111786</v>
+        <v>108833</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06501333031409497</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05448724571163154</v>
+        <v>0.05333101434940984</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07995586894200908</v>
+        <v>0.07784378840584683</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>523864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>510081</v>
+        <v>510085</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>534607</v>
+        <v>534836</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9223543508616854</v>
+        <v>0.9223543508616849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8980872877853215</v>
+        <v>0.8980947378748675</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9412683760239478</v>
+        <v>0.941672777167569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1217</v>
@@ -6987,19 +6987,19 @@
         <v>783332</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>766944</v>
+        <v>769264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>792875</v>
+        <v>794400</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9436295576534267</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9238878664979728</v>
+        <v>0.9266821450275847</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9551252031498783</v>
+        <v>0.9569618779015525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1712</v>
@@ -7008,19 +7008,19 @@
         <v>1307196</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1286305</v>
+        <v>1289258</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1321913</v>
+        <v>1323529</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9349866696859052</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9200441310579907</v>
+        <v>0.9221562115941531</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9455127542883687</v>
+        <v>0.94666898565059</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>4160</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10511</v>
+        <v>11533</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01753473395752577</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004049334334958508</v>
+        <v>0.00421625882459062</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04430926554696216</v>
+        <v>0.04861563693107863</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -7133,19 +7133,19 @@
         <v>43891</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34133</v>
+        <v>33451</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58975</v>
+        <v>58743</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05198602779393301</v>
+        <v>0.05198602779393302</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0404281749304807</v>
+        <v>0.03962117083398967</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06985182262029413</v>
+        <v>0.06957704738453516</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -7154,19 +7154,19 @@
         <v>48051</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36807</v>
+        <v>36642</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63080</v>
+        <v>63847</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04442917450078277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03403301769132544</v>
+        <v>0.03388087800479141</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05832585568677072</v>
+        <v>0.05903524532601234</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>233068</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226717</v>
+        <v>225695</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236267</v>
+        <v>236228</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9824652660424742</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.955690734453038</v>
+        <v>0.9513843630689214</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9959506656650415</v>
+        <v>0.9957837411754095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1093</v>
@@ -7204,19 +7204,19 @@
         <v>800390</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>785306</v>
+        <v>785538</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>810148</v>
+        <v>810830</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9480139722060669</v>
+        <v>0.9480139722060671</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9301481773797057</v>
+        <v>0.9304229526154648</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9595718250695192</v>
+        <v>0.9603788291660099</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1201</v>
@@ -7225,19 +7225,19 @@
         <v>1033458</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1018429</v>
+        <v>1017662</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1044702</v>
+        <v>1044867</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9555708254992173</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9416741443132293</v>
+        <v>0.9409647546739874</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9659669823086747</v>
+        <v>0.9661191219952086</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>204382</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>178545</v>
+        <v>176430</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>234070</v>
+        <v>237387</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05937052732356959</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05186519743043014</v>
+        <v>0.05125080454665792</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06799453384693291</v>
+        <v>0.06895834992091651</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>335</v>
@@ -7350,19 +7350,19 @@
         <v>238396</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>212731</v>
+        <v>212943</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>266191</v>
+        <v>269298</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0655893557140856</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05852816244987229</v>
+        <v>0.05858653267128678</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07323666273613412</v>
+        <v>0.07409134214600828</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>562</v>
@@ -7371,19 +7371,19 @@
         <v>442777</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>403819</v>
+        <v>400659</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>481317</v>
+        <v>483851</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0625643840518532</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05705955240641827</v>
+        <v>0.0566131429325296</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06801007792867513</v>
+        <v>0.06836812537563607</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3238094</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3208406</v>
+        <v>3205089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3263931</v>
+        <v>3266046</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9406294726764305</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9320054661530668</v>
+        <v>0.9310416500790832</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9481348025695697</v>
+        <v>0.9487491954533419</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4908</v>
@@ -7421,19 +7421,19 @@
         <v>3396274</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3368479</v>
+        <v>3365372</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3421939</v>
+        <v>3421727</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9344106442859144</v>
+        <v>0.9344106442859145</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9267633372638659</v>
+        <v>0.9259086578539925</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9414718375501276</v>
+        <v>0.9414134673287131</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7981</v>
@@ -7442,19 +7442,19 @@
         <v>6634369</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6595829</v>
+        <v>6593295</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6673327</v>
+        <v>6676487</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9374356159481466</v>
+        <v>0.9374356159481471</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.931989922071325</v>
+        <v>0.931631874624364</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.942940447593582</v>
+        <v>0.9433868570674703</v>
       </c>
     </row>
     <row r="24">
